--- a/fastapi-manifiesto/Manifiesto_Preview.xlsx
+++ b/fastapi-manifiesto/Manifiesto_Preview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2660d095b716455c/Desktop/Comp/React/kia-app-FINAL2/fastapi-manifiesto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{06F33644-1988-477E-B9EC-E9E7049AA91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77A93414-AA1C-4588-ADDD-D09AC385938B}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{06F33644-1988-477E-B9EC-E9E7049AA91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B474D2F-F807-42DD-B14E-ED7E86938FA1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="431" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="431" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERADOR ORIGINAL" sheetId="56" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="84">
   <si>
     <t>1.-NÚM. DE REGISTRO AMBIENTAL (o Núm. de Registro como Empresa Generadora)</t>
   </si>
@@ -164,9 +164,6 @@
     <t>CAPACIDAD</t>
   </si>
   <si>
-    <t>81-13-44-00-00</t>
-  </si>
-  <si>
     <t>Boulevard KIA No. 777</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>TRANSPORTISTA</t>
   </si>
   <si>
-    <t>1000 Litros</t>
-  </si>
-  <si>
     <t>Papel contaminado con pintura proveniente de la actividad de retoque de carrocerias (T)</t>
   </si>
   <si>
@@ -216,12 +210,6 @@
   </si>
   <si>
     <t>SERVICIOS AMBIENTALES INTERNACIONALES S. DE R.L. DE C.V.</t>
-  </si>
-  <si>
-    <t>19-I-030D-19</t>
-  </si>
-  <si>
-    <t>tote</t>
   </si>
   <si>
     <t>Contenedores  vacios plasticos   contaminados de pintura de aceite y aceite hidraulico (T)</t>
@@ -296,28 +284,7 @@
     <t>Catalizadores gastados de equipos automotores (C)  (T)</t>
   </si>
   <si>
-    <t>tambo</t>
-  </si>
-  <si>
-    <t>200 L</t>
-  </si>
-  <si>
-    <t>600 kg</t>
-  </si>
-  <si>
-    <t>PESQUERIA-SALINAS VICTORIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHOFER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3 TRACTOR </t>
-  </si>
-  <si>
-    <t>19-II-004-D-2020</t>
-  </si>
-  <si>
-    <t>CALLE DE LA INDUSTRIA, NUM 102, COL.SALINAS VICTORIA, SALINAS VICTORIA, NUEVO LEON, CP 65500</t>
   </si>
   <si>
     <t>Total</t>
@@ -330,33 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">GENERADOR </t>
-  </si>
-  <si>
-    <t>Vania Guadalupe Cruz Ríos</t>
-  </si>
-  <si>
-    <t>pieza</t>
-  </si>
-  <si>
-    <t>paca</t>
-  </si>
-  <si>
-    <t>Contenedores  vacios metalicos contaminados de pintura de aceite, aceite hidraulico y sello (T)</t>
-  </si>
-  <si>
-    <t>Contenedores  vacios plasticos contaminados de pintura de aceite y aceite hidraulico (T)</t>
-  </si>
-  <si>
-    <t>KMX-25-40</t>
-  </si>
-  <si>
-    <t>43AK9M</t>
-  </si>
-  <si>
-    <t>1938SAI07062011230301023</t>
-  </si>
-  <si>
-    <t>José Fernando Morales Meza</t>
   </si>
   <si>
     <t>GENERADOR ORIGINAL</t>
@@ -1503,13 +1443,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2400,8 +2340,8 @@
   </sheetPr>
   <dimension ref="A1:AQ236"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A38" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="AB55" sqref="AB55"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2439,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="6" customHeight="1">
       <c r="G1" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="136"/>
       <c r="I1" s="136"/>
@@ -2620,7 +2560,7 @@
     </row>
     <row r="9" spans="1:30" ht="14.25" customHeight="1">
       <c r="G9" s="138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
@@ -2653,7 +2593,7 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="141" t="s">
         <v>0</v>
@@ -2719,7 +2659,7 @@
       <c r="Z12" s="151"/>
       <c r="AA12" s="152"/>
       <c r="AB12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
@@ -2743,7 +2683,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S13" s="157"/>
       <c r="T13" s="157"/>
@@ -2755,7 +2695,7 @@
       <c r="Z13" s="157"/>
       <c r="AA13" s="158"/>
       <c r="AD13" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1" thickBot="1">
@@ -2769,7 +2709,7 @@
       <c r="F14" s="159"/>
       <c r="G14" s="159"/>
       <c r="H14" s="140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="140"/>
       <c r="J14" s="140"/>
@@ -2795,7 +2735,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="10"/>
       <c r="AD14" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="18" customHeight="1" thickBot="1">
@@ -2821,7 +2761,7 @@
       <c r="P15" s="161"/>
       <c r="Q15" s="161"/>
       <c r="R15" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="139"/>
       <c r="T15" s="139"/>
@@ -2835,7 +2775,7 @@
       <c r="Z15" s="161"/>
       <c r="AA15" s="162"/>
       <c r="AD15" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1" thickBot="1">
@@ -2846,7 +2786,7 @@
       <c r="C16" s="139"/>
       <c r="D16" s="14"/>
       <c r="E16" s="140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -2871,7 +2811,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
       <c r="AD16" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="8.25" customHeight="1">
@@ -2903,7 +2843,7 @@
       <c r="Z17" s="163"/>
       <c r="AA17" s="164"/>
       <c r="AD17" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="18" customHeight="1">
@@ -2937,13 +2877,13 @@
       </c>
       <c r="W18" s="172"/>
       <c r="X18" s="177" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
       <c r="AA18" s="177"/>
       <c r="AD18" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
@@ -2992,7 +2932,7 @@
       <c r="Z19" s="177"/>
       <c r="AA19" s="177"/>
       <c r="AD19" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="45" customHeight="1">
@@ -3234,7 +3174,7 @@
       <c r="Z27" s="166"/>
       <c r="AA27" s="167"/>
       <c r="AD27" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="29.25" customHeight="1">
@@ -3326,13 +3266,13 @@
       <c r="Z30" s="183"/>
       <c r="AA30" s="183"/>
       <c r="AD30" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="18.75" customHeight="1">
       <c r="A31" s="88"/>
       <c r="B31" s="41" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -3398,7 +3338,7 @@
       <c r="Z32" s="119"/>
       <c r="AA32" s="120"/>
       <c r="AD32" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1">
@@ -3430,7 +3370,7 @@
       <c r="Z33" s="93"/>
       <c r="AA33" s="94"/>
       <c r="AD33" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="21" customHeight="1" thickTop="1">
@@ -3464,13 +3404,13 @@
       <c r="Z34" s="98"/>
       <c r="AA34" s="99"/>
       <c r="AD34" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42" customHeight="1">
       <c r="A35" s="88"/>
       <c r="B35" s="100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="100"/>
       <c r="D35" s="100"/>
@@ -3498,7 +3438,7 @@
       <c r="Z35" s="100"/>
       <c r="AA35" s="101"/>
       <c r="AD35" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="21" customHeight="1" thickBot="1">
@@ -3532,12 +3472,12 @@
       <c r="Z36" s="61"/>
       <c r="AA36" s="62"/>
       <c r="AD36" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="18.75" customHeight="1">
       <c r="A37" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>13</v>
@@ -3556,7 +3496,7 @@
       <c r="N37" s="65"/>
       <c r="O37" s="11"/>
       <c r="P37" s="95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="96"/>
       <c r="R37" s="96"/>
@@ -3570,7 +3510,7 @@
       <c r="Z37" s="96"/>
       <c r="AA37" s="97"/>
       <c r="AD37" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" customHeight="1">
@@ -3606,13 +3546,13 @@
       <c r="Z38" s="67"/>
       <c r="AA38" s="68"/>
       <c r="AD38" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="A39" s="86"/>
       <c r="B39" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
@@ -3642,7 +3582,7 @@
       <c r="Z39" s="80"/>
       <c r="AA39" s="81"/>
       <c r="AD39" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="14.25" customHeight="1">
@@ -3676,7 +3616,7 @@
       <c r="Z40" s="57"/>
       <c r="AA40" s="82"/>
       <c r="AD40" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="14.25" customHeight="1">
@@ -3720,7 +3660,7 @@
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
       <c r="E42" s="83" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -3780,9 +3720,7 @@
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1">
       <c r="A44" s="86"/>
-      <c r="B44" s="72" t="s">
-        <v>85</v>
-      </c>
+      <c r="B44" s="72"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
@@ -3821,9 +3759,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="48" t="s">
-        <v>87</v>
-      </c>
+      <c r="J45" s="48"/>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
@@ -3846,7 +3782,7 @@
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1">
       <c r="A46" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="111" t="s">
         <v>23</v>
@@ -4132,7 +4068,7 @@
     </row>
     <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="B55" s="122" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C55" s="122"/>
       <c r="D55" s="122"/>
@@ -4530,8 +4466,8 @@
   </sheetPr>
   <dimension ref="A1:AQ236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24:AA24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4569,7 +4505,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="6" customHeight="1">
       <c r="G1" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="136"/>
       <c r="I1" s="136"/>
@@ -4750,7 +4686,7 @@
     </row>
     <row r="9" spans="1:30" ht="14.25" customHeight="1">
       <c r="G9" s="138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
@@ -4783,7 +4719,7 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="141" t="s">
         <v>0</v>
@@ -4849,7 +4785,7 @@
       <c r="Z12" s="151"/>
       <c r="AA12" s="152"/>
       <c r="AB12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
@@ -4873,7 +4809,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S13" s="157"/>
       <c r="T13" s="157"/>
@@ -4885,7 +4821,7 @@
       <c r="Z13" s="157"/>
       <c r="AA13" s="158"/>
       <c r="AD13" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1" thickBot="1">
@@ -4899,7 +4835,7 @@
       <c r="F14" s="159"/>
       <c r="G14" s="159"/>
       <c r="H14" s="140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="140"/>
       <c r="J14" s="140"/>
@@ -4925,7 +4861,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="10"/>
       <c r="AD14" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="18" customHeight="1" thickBot="1">
@@ -4951,7 +4887,7 @@
       <c r="P15" s="161"/>
       <c r="Q15" s="161"/>
       <c r="R15" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="139"/>
       <c r="T15" s="139"/>
@@ -4965,7 +4901,7 @@
       <c r="Z15" s="161"/>
       <c r="AA15" s="162"/>
       <c r="AD15" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1" thickBot="1">
@@ -4976,7 +4912,7 @@
       <c r="C16" s="139"/>
       <c r="D16" s="14"/>
       <c r="E16" s="140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -5001,7 +4937,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
       <c r="AD16" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="8.25" customHeight="1">
@@ -5033,7 +4969,7 @@
       <c r="Z17" s="163"/>
       <c r="AA17" s="164"/>
       <c r="AD17" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="18" customHeight="1">
@@ -5067,13 +5003,13 @@
       </c>
       <c r="W18" s="172"/>
       <c r="X18" s="177" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
       <c r="AA18" s="177"/>
       <c r="AD18" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
@@ -5122,7 +5058,7 @@
       <c r="Z19" s="177"/>
       <c r="AA19" s="177"/>
       <c r="AD19" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="45" customHeight="1">
@@ -5217,28 +5153,28 @@
     </row>
     <row r="23" spans="1:43" ht="28.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
       <c r="O23" s="35"/>
       <c r="P23" s="135"/>
       <c r="Q23" s="135"/>
       <c r="R23" s="135"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="189"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="183"/>
       <c r="Z23" s="183"/>
@@ -5364,7 +5300,7 @@
       <c r="Z27" s="166"/>
       <c r="AA27" s="167"/>
       <c r="AD27" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="29.25" customHeight="1">
@@ -5456,13 +5392,13 @@
       <c r="Z30" s="183"/>
       <c r="AA30" s="183"/>
       <c r="AD30" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="18.75" customHeight="1">
       <c r="A31" s="88"/>
       <c r="B31" s="186" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C31" s="187"/>
       <c r="D31" s="187"/>
@@ -5528,7 +5464,7 @@
       <c r="Z32" s="119"/>
       <c r="AA32" s="120"/>
       <c r="AD32" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1">
@@ -5560,7 +5496,7 @@
       <c r="Z33" s="93"/>
       <c r="AA33" s="94"/>
       <c r="AD33" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="21" customHeight="1" thickTop="1">
@@ -5594,13 +5530,13 @@
       <c r="Z34" s="98"/>
       <c r="AA34" s="99"/>
       <c r="AD34" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42" customHeight="1">
       <c r="A35" s="88"/>
       <c r="B35" s="100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="100"/>
       <c r="D35" s="100"/>
@@ -5628,7 +5564,7 @@
       <c r="Z35" s="100"/>
       <c r="AA35" s="101"/>
       <c r="AD35" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="21" customHeight="1" thickBot="1">
@@ -5662,12 +5598,12 @@
       <c r="Z36" s="61"/>
       <c r="AA36" s="62"/>
       <c r="AD36" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="18.75" customHeight="1">
       <c r="A37" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>13</v>
@@ -5698,7 +5634,7 @@
       <c r="Z37" s="96"/>
       <c r="AA37" s="97"/>
       <c r="AD37" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" customHeight="1">
@@ -5734,13 +5670,13 @@
       <c r="Z38" s="67"/>
       <c r="AA38" s="68"/>
       <c r="AD38" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="A39" s="86"/>
       <c r="B39" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
@@ -5770,7 +5706,7 @@
       <c r="Z39" s="80"/>
       <c r="AA39" s="81"/>
       <c r="AD39" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="14.25" customHeight="1">
@@ -5804,7 +5740,7 @@
       <c r="Z40" s="57"/>
       <c r="AA40" s="82"/>
       <c r="AD40" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="14.25" customHeight="1">
@@ -5848,7 +5784,7 @@
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
       <c r="E42" s="83" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -5970,7 +5906,7 @@
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1">
       <c r="A46" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="111" t="s">
         <v>23</v>
@@ -6256,7 +6192,7 @@
     </row>
     <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="B55" s="122" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C55" s="122"/>
       <c r="D55" s="122"/>
@@ -6496,13 +6432,6 @@
     <row r="236" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="P25:R25"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="B24:N24"/>
@@ -6527,6 +6456,13 @@
     <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="V25:W25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="P25:R25"/>
     <mergeCell ref="G1:W6"/>
     <mergeCell ref="AA7:AA10"/>
     <mergeCell ref="G9:V9"/>
@@ -6571,6 +6507,9 @@
     <mergeCell ref="S41:U41"/>
     <mergeCell ref="V41:AA41"/>
     <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:AA42"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="B46:P46"/>
     <mergeCell ref="Q46:AA46"/>
@@ -6581,9 +6520,6 @@
     <mergeCell ref="B49:AA49"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:AA50"/>
-    <mergeCell ref="E42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:AA42"/>
     <mergeCell ref="B40:AA40"/>
     <mergeCell ref="B32:U32"/>
     <mergeCell ref="V32:W32"/>
@@ -6605,6 +6541,9 @@
     <mergeCell ref="P18:U18"/>
     <mergeCell ref="V18:W19"/>
     <mergeCell ref="X18:AA19"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="P27:R27"/>
     <mergeCell ref="B56:AA56"/>
     <mergeCell ref="B51:AA51"/>
     <mergeCell ref="B52:D52"/>
@@ -6618,9 +6557,6 @@
     <mergeCell ref="B54:V54"/>
     <mergeCell ref="W54:Y54"/>
     <mergeCell ref="B55:AA55"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="P27:R27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="B31:U31"/>
     <mergeCell ref="Y30:AA30"/>
@@ -6654,8 +6590,8 @@
   </sheetPr>
   <dimension ref="A1:AQ236"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A30" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22:AD25"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -6693,7 +6629,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="6" customHeight="1">
       <c r="G1" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="136"/>
       <c r="I1" s="136"/>
@@ -6874,7 +6810,7 @@
     </row>
     <row r="9" spans="1:30" ht="14.25" customHeight="1">
       <c r="G9" s="138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
@@ -6907,7 +6843,7 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="141" t="s">
         <v>0</v>
@@ -6965,9 +6901,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="153"/>
       <c r="T12" s="154"/>
-      <c r="U12" s="155" t="s">
-        <v>99</v>
-      </c>
+      <c r="U12" s="155"/>
       <c r="V12" s="155"/>
       <c r="W12" s="155"/>
       <c r="X12" s="150"/>
@@ -6975,7 +6909,7 @@
       <c r="Z12" s="151"/>
       <c r="AA12" s="152"/>
       <c r="AB12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
@@ -6999,7 +6933,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S13" s="157"/>
       <c r="T13" s="157"/>
@@ -7011,7 +6945,7 @@
       <c r="Z13" s="157"/>
       <c r="AA13" s="158"/>
       <c r="AD13" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1" thickBot="1">
@@ -7025,7 +6959,7 @@
       <c r="F14" s="159"/>
       <c r="G14" s="159"/>
       <c r="H14" s="140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="140"/>
       <c r="J14" s="140"/>
@@ -7051,7 +6985,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="10"/>
       <c r="AD14" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="18" customHeight="1" thickBot="1">
@@ -7077,7 +7011,7 @@
       <c r="P15" s="161"/>
       <c r="Q15" s="161"/>
       <c r="R15" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="139"/>
       <c r="T15" s="139"/>
@@ -7091,7 +7025,7 @@
       <c r="Z15" s="161"/>
       <c r="AA15" s="162"/>
       <c r="AD15" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1" thickBot="1">
@@ -7102,7 +7036,7 @@
       <c r="C16" s="139"/>
       <c r="D16" s="14"/>
       <c r="E16" s="140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -7127,7 +7061,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
       <c r="AD16" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="8.25" customHeight="1">
@@ -7159,7 +7093,7 @@
       <c r="Z17" s="163"/>
       <c r="AA17" s="164"/>
       <c r="AD17" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="18" customHeight="1">
@@ -7193,13 +7127,13 @@
       </c>
       <c r="W18" s="172"/>
       <c r="X18" s="177" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
       <c r="AA18" s="177"/>
       <c r="AD18" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
@@ -7248,14 +7182,12 @@
       <c r="Z19" s="177"/>
       <c r="AA19" s="177"/>
       <c r="AD19" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="45" customHeight="1">
       <c r="A20" s="88"/>
-      <c r="B20" s="108" t="s">
-        <v>59</v>
-      </c>
+      <c r="B20" s="108"/>
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109"/>
@@ -7269,35 +7201,23 @@
       <c r="M20" s="109"/>
       <c r="N20" s="110"/>
       <c r="O20" s="37"/>
-      <c r="P20" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P20" s="102"/>
       <c r="Q20" s="103"/>
       <c r="R20" s="104"/>
-      <c r="S20" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S20" s="102"/>
       <c r="T20" s="103"/>
       <c r="U20" s="104"/>
-      <c r="V20" s="181">
-        <f>8+4</f>
-        <v>12</v>
-      </c>
+      <c r="V20" s="181"/>
       <c r="W20" s="182"/>
       <c r="X20" s="38"/>
-      <c r="Y20" s="178">
-        <f>533+520+305+233+252+487+350+280+263+469+254+315</f>
-        <v>4261</v>
-      </c>
+      <c r="Y20" s="178"/>
       <c r="Z20" s="179"/>
       <c r="AA20" s="180"/>
       <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:43" ht="42.75" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="108" t="s">
-        <v>59</v>
-      </c>
+      <c r="B21" s="108"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
       <c r="E21" s="109"/>
@@ -7311,34 +7231,23 @@
       <c r="M21" s="109"/>
       <c r="N21" s="110"/>
       <c r="O21" s="33"/>
-      <c r="P21" s="102" t="s">
-        <v>84</v>
-      </c>
+      <c r="P21" s="102"/>
       <c r="Q21" s="103"/>
       <c r="R21" s="104"/>
-      <c r="S21" s="102" t="s">
-        <v>96</v>
-      </c>
+      <c r="S21" s="102"/>
       <c r="T21" s="103"/>
       <c r="U21" s="104"/>
-      <c r="V21" s="168">
-        <v>4</v>
-      </c>
+      <c r="V21" s="168"/>
       <c r="W21" s="169"/>
       <c r="X21" s="36"/>
-      <c r="Y21" s="165">
-        <f>535+590+600+540</f>
-        <v>2265</v>
-      </c>
+      <c r="Y21" s="165"/>
       <c r="Z21" s="166"/>
       <c r="AA21" s="167"/>
       <c r="AD21" s="29"/>
     </row>
     <row r="22" spans="1:43" ht="28.5" customHeight="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="108" t="s">
-        <v>97</v>
-      </c>
+      <c r="B22" s="108"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
       <c r="E22" s="109"/>
@@ -7352,77 +7261,53 @@
       <c r="M22" s="109"/>
       <c r="N22" s="110"/>
       <c r="O22" s="35"/>
-      <c r="P22" s="102">
-        <v>1</v>
-      </c>
+      <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
       <c r="R22" s="104"/>
-      <c r="S22" s="102" t="s">
-        <v>95</v>
-      </c>
+      <c r="S22" s="102"/>
       <c r="T22" s="103"/>
       <c r="U22" s="104"/>
-      <c r="V22" s="168">
-        <f>332+190</f>
-        <v>522</v>
-      </c>
+      <c r="V22" s="168"/>
       <c r="W22" s="169"/>
       <c r="X22" s="36"/>
-      <c r="Y22" s="165">
-        <f>138+223</f>
-        <v>361</v>
-      </c>
+      <c r="Y22" s="165"/>
       <c r="Z22" s="166"/>
       <c r="AA22" s="167"/>
       <c r="AD22" s="29"/>
     </row>
     <row r="23" spans="1:43" ht="28.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="192" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
       <c r="O23" s="35"/>
-      <c r="P23" s="135">
-        <v>1</v>
-      </c>
+      <c r="P23" s="135"/>
       <c r="Q23" s="135"/>
       <c r="R23" s="135"/>
-      <c r="S23" s="190" t="s">
-        <v>95</v>
-      </c>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="191">
-        <f>70+35</f>
-        <v>105</v>
-      </c>
-      <c r="W23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="189"/>
       <c r="X23" s="36"/>
-      <c r="Y23" s="183">
-        <f>106+72</f>
-        <v>178</v>
-      </c>
+      <c r="Y23" s="183"/>
       <c r="Z23" s="183"/>
       <c r="AA23" s="183"/>
       <c r="AD23" s="29"/>
     </row>
     <row r="24" spans="1:43" ht="28.5" customHeight="1">
       <c r="A24" s="88"/>
-      <c r="B24" s="108" t="s">
-        <v>78</v>
-      </c>
+      <c r="B24" s="108"/>
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
@@ -7436,34 +7321,23 @@
       <c r="M24" s="109"/>
       <c r="N24" s="110"/>
       <c r="O24" s="35"/>
-      <c r="P24" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P24" s="102"/>
       <c r="Q24" s="103"/>
       <c r="R24" s="104"/>
-      <c r="S24" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S24" s="102"/>
       <c r="T24" s="103"/>
       <c r="U24" s="104"/>
-      <c r="V24" s="184">
-        <v>7</v>
-      </c>
+      <c r="V24" s="184"/>
       <c r="W24" s="184"/>
       <c r="X24" s="34"/>
-      <c r="Y24" s="184">
-        <f>360+433+306+345+441+305+355</f>
-        <v>2545</v>
-      </c>
+      <c r="Y24" s="184"/>
       <c r="Z24" s="184"/>
       <c r="AA24" s="184"/>
       <c r="AD24" s="29"/>
     </row>
     <row r="25" spans="1:43" ht="18.75" customHeight="1">
       <c r="A25" s="88"/>
-      <c r="B25" s="108" t="s">
-        <v>75</v>
-      </c>
+      <c r="B25" s="108"/>
       <c r="C25" s="109"/>
       <c r="D25" s="109"/>
       <c r="E25" s="109"/>
@@ -7477,35 +7351,23 @@
       <c r="M25" s="109"/>
       <c r="N25" s="110"/>
       <c r="O25" s="33"/>
-      <c r="P25" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P25" s="102"/>
       <c r="Q25" s="103"/>
       <c r="R25" s="104"/>
-      <c r="S25" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S25" s="102"/>
       <c r="T25" s="103"/>
       <c r="U25" s="104"/>
-      <c r="V25" s="168">
-        <f>5+2</f>
-        <v>7</v>
-      </c>
+      <c r="V25" s="168"/>
       <c r="W25" s="169"/>
       <c r="X25" s="36"/>
-      <c r="Y25" s="165">
-        <f>663+621+620+689+769+580+639</f>
-        <v>4581</v>
-      </c>
+      <c r="Y25" s="165"/>
       <c r="Z25" s="166"/>
       <c r="AA25" s="167"/>
       <c r="AD25" s="28"/>
     </row>
     <row r="26" spans="1:43" ht="30.75" customHeight="1">
       <c r="A26" s="88"/>
-      <c r="B26" s="108" t="s">
-        <v>68</v>
-      </c>
+      <c r="B26" s="108"/>
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
       <c r="E26" s="109"/>
@@ -7519,35 +7381,23 @@
       <c r="M26" s="109"/>
       <c r="N26" s="110"/>
       <c r="O26" s="33"/>
-      <c r="P26" s="102" t="s">
-        <v>83</v>
-      </c>
+      <c r="P26" s="102"/>
       <c r="Q26" s="103"/>
       <c r="R26" s="104"/>
-      <c r="S26" s="102" t="s">
-        <v>82</v>
-      </c>
+      <c r="S26" s="102"/>
       <c r="T26" s="103"/>
       <c r="U26" s="104"/>
-      <c r="V26" s="168">
-        <f>4+4+4+3</f>
-        <v>15</v>
-      </c>
+      <c r="V26" s="168"/>
       <c r="W26" s="169"/>
       <c r="X26" s="36"/>
-      <c r="Y26" s="165">
-        <f>670+567+480+244</f>
-        <v>1961</v>
-      </c>
+      <c r="Y26" s="165"/>
       <c r="Z26" s="166"/>
       <c r="AA26" s="167"/>
       <c r="AD26" s="28"/>
     </row>
     <row r="27" spans="1:43" ht="28.5" customHeight="1">
       <c r="A27" s="88"/>
-      <c r="B27" s="108" t="s">
-        <v>68</v>
-      </c>
+      <c r="B27" s="108"/>
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
       <c r="E27" s="109"/>
@@ -7561,36 +7411,25 @@
       <c r="M27" s="109"/>
       <c r="N27" s="110"/>
       <c r="O27" s="33"/>
-      <c r="P27" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P27" s="102"/>
       <c r="Q27" s="103"/>
       <c r="R27" s="104"/>
-      <c r="S27" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S27" s="102"/>
       <c r="T27" s="103"/>
       <c r="U27" s="104"/>
-      <c r="V27" s="168">
-        <v>5</v>
-      </c>
+      <c r="V27" s="168"/>
       <c r="W27" s="169"/>
       <c r="X27" s="36"/>
-      <c r="Y27" s="165">
-        <f>1000+1063+1045+1045+1038</f>
-        <v>5191</v>
-      </c>
+      <c r="Y27" s="165"/>
       <c r="Z27" s="166"/>
       <c r="AA27" s="167"/>
       <c r="AD27" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="29.25" customHeight="1">
       <c r="A28" s="89"/>
-      <c r="B28" s="108" t="s">
-        <v>70</v>
-      </c>
+      <c r="B28" s="108"/>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
@@ -7604,35 +7443,23 @@
       <c r="M28" s="109"/>
       <c r="N28" s="110"/>
       <c r="O28" s="33"/>
-      <c r="P28" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P28" s="102"/>
       <c r="Q28" s="103"/>
       <c r="R28" s="104"/>
-      <c r="S28" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S28" s="102"/>
       <c r="T28" s="103"/>
       <c r="U28" s="104"/>
-      <c r="V28" s="184">
-        <f>2+1</f>
-        <v>3</v>
-      </c>
+      <c r="V28" s="184"/>
       <c r="W28" s="184"/>
       <c r="X28" s="39"/>
-      <c r="Y28" s="184">
-        <f>1012+1320+1330</f>
-        <v>3662</v>
-      </c>
+      <c r="Y28" s="184"/>
       <c r="Z28" s="184"/>
       <c r="AA28" s="184"/>
       <c r="AD28" s="29"/>
     </row>
     <row r="29" spans="1:43" ht="29.25" customHeight="1">
       <c r="A29" s="89"/>
-      <c r="B29" s="108" t="s">
-        <v>70</v>
-      </c>
+      <c r="B29" s="108"/>
       <c r="C29" s="109"/>
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
@@ -7646,35 +7473,23 @@
       <c r="M29" s="109"/>
       <c r="N29" s="110"/>
       <c r="O29" s="33"/>
-      <c r="P29" s="102" t="s">
-        <v>83</v>
-      </c>
+      <c r="P29" s="102"/>
       <c r="Q29" s="103"/>
       <c r="R29" s="104"/>
-      <c r="S29" s="74" t="s">
-        <v>82</v>
-      </c>
+      <c r="S29" s="74"/>
       <c r="T29" s="43"/>
       <c r="U29" s="75"/>
-      <c r="V29" s="184">
-        <f>4+4+3+4+4+4+4+4</f>
-        <v>31</v>
-      </c>
+      <c r="V29" s="184"/>
       <c r="W29" s="184"/>
       <c r="X29" s="39"/>
-      <c r="Y29" s="184">
-        <f>560+177+91+411+525+298+272+139</f>
-        <v>2473</v>
-      </c>
+      <c r="Y29" s="184"/>
       <c r="Z29" s="184"/>
       <c r="AA29" s="184"/>
       <c r="AD29" s="29"/>
     </row>
     <row r="30" spans="1:43" ht="24.75" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="185" t="s">
-        <v>63</v>
-      </c>
+      <c r="B30" s="185"/>
       <c r="C30" s="185"/>
       <c r="D30" s="185"/>
       <c r="E30" s="185"/>
@@ -7688,33 +7503,26 @@
       <c r="M30" s="185"/>
       <c r="N30" s="185"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="135" t="s">
-        <v>83</v>
-      </c>
+      <c r="P30" s="135"/>
       <c r="Q30" s="135"/>
       <c r="R30" s="135"/>
-      <c r="S30" s="135" t="s">
-        <v>82</v>
-      </c>
+      <c r="S30" s="135"/>
       <c r="T30" s="135"/>
       <c r="U30" s="135"/>
-      <c r="V30" s="183">
-        <f>3+3</f>
-        <v>6</v>
-      </c>
+      <c r="V30" s="183"/>
       <c r="W30" s="183"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="183"/>
       <c r="Z30" s="183"/>
       <c r="AA30" s="183"/>
       <c r="AD30" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="18.75" customHeight="1">
       <c r="A31" s="88"/>
       <c r="B31" s="186" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C31" s="187"/>
       <c r="D31" s="187"/>
@@ -7737,13 +7545,13 @@
       <c r="U31" s="187"/>
       <c r="V31" s="44">
         <f>SUM(V20:W30)</f>
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="W31" s="44"/>
       <c r="X31" s="32"/>
       <c r="Y31" s="45">
         <f>SUM(Y20:AA30)</f>
-        <v>27478</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
@@ -7780,7 +7588,7 @@
       <c r="Z32" s="119"/>
       <c r="AA32" s="120"/>
       <c r="AD32" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1">
@@ -7812,7 +7620,7 @@
       <c r="Z33" s="93"/>
       <c r="AA33" s="94"/>
       <c r="AD33" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="21" customHeight="1" thickTop="1">
@@ -7846,13 +7654,13 @@
       <c r="Z34" s="98"/>
       <c r="AA34" s="99"/>
       <c r="AD34" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42" customHeight="1">
       <c r="A35" s="88"/>
       <c r="B35" s="100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="100"/>
       <c r="D35" s="100"/>
@@ -7880,7 +7688,7 @@
       <c r="Z35" s="100"/>
       <c r="AA35" s="101"/>
       <c r="AD35" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="21" customHeight="1" thickBot="1">
@@ -7901,9 +7709,7 @@
       <c r="M36" s="85"/>
       <c r="N36" s="85"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="61" t="s">
-        <v>94</v>
-      </c>
+      <c r="P36" s="61"/>
       <c r="Q36" s="61"/>
       <c r="R36" s="61"/>
       <c r="S36" s="61"/>
@@ -7916,12 +7722,12 @@
       <c r="Z36" s="61"/>
       <c r="AA36" s="62"/>
       <c r="AD36" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="18.75" customHeight="1">
       <c r="A37" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>13</v>
@@ -7939,9 +7745,7 @@
       <c r="M37" s="64"/>
       <c r="N37" s="65"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="95" t="s">
-        <v>55</v>
-      </c>
+      <c r="P37" s="95"/>
       <c r="Q37" s="96"/>
       <c r="R37" s="96"/>
       <c r="S37" s="96"/>
@@ -7954,7 +7758,7 @@
       <c r="Z37" s="96"/>
       <c r="AA37" s="97"/>
       <c r="AD37" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" customHeight="1">
@@ -7965,9 +7769,7 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="66" t="s">
-        <v>89</v>
-      </c>
+      <c r="F38" s="66"/>
       <c r="G38" s="67"/>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
@@ -7985,22 +7787,20 @@
         <v>6</v>
       </c>
       <c r="U38" s="78"/>
-      <c r="V38" s="66" t="s">
-        <v>39</v>
-      </c>
+      <c r="V38" s="66"/>
       <c r="W38" s="67"/>
       <c r="X38" s="67"/>
       <c r="Y38" s="67"/>
       <c r="Z38" s="67"/>
       <c r="AA38" s="68"/>
       <c r="AD38" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="A39" s="86"/>
       <c r="B39" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
@@ -8009,9 +7809,7 @@
       <c r="G39" s="76"/>
       <c r="H39" s="76"/>
       <c r="I39" s="77"/>
-      <c r="J39" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="J39" s="74"/>
       <c r="K39" s="43"/>
       <c r="L39" s="43"/>
       <c r="M39" s="43"/>
@@ -8028,13 +7826,11 @@
       <c r="V39" s="63"/>
       <c r="W39" s="63"/>
       <c r="X39" s="63"/>
-      <c r="Y39" s="79" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y39" s="79"/>
       <c r="Z39" s="80"/>
       <c r="AA39" s="81"/>
       <c r="AD39" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="14.25" customHeight="1">
@@ -8068,7 +7864,7 @@
       <c r="Z40" s="57"/>
       <c r="AA40" s="82"/>
       <c r="AD40" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="14.25" customHeight="1">
@@ -8078,9 +7874,7 @@
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
-      <c r="E41" s="53" t="s">
-        <v>102</v>
-      </c>
+      <c r="E41" s="53"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
@@ -8114,7 +7908,7 @@
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
       <c r="E42" s="83" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -8135,9 +7929,7 @@
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
       <c r="V42" s="58"/>
-      <c r="W42" s="132">
-        <v>45791</v>
-      </c>
+      <c r="W42" s="132"/>
       <c r="X42" s="133"/>
       <c r="Y42" s="133"/>
       <c r="Z42" s="133"/>
@@ -8176,9 +7968,7 @@
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1">
       <c r="A44" s="86"/>
-      <c r="B44" s="72" t="s">
-        <v>85</v>
-      </c>
+      <c r="B44" s="72"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
@@ -8217,9 +8007,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="48" t="s">
-        <v>87</v>
-      </c>
+      <c r="J45" s="48"/>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
@@ -8233,9 +8021,7 @@
       <c r="S45" s="91"/>
       <c r="T45" s="91"/>
       <c r="U45" s="91"/>
-      <c r="V45" s="69" t="s">
-        <v>100</v>
-      </c>
+      <c r="V45" s="69"/>
       <c r="W45" s="70"/>
       <c r="X45" s="70"/>
       <c r="Y45" s="70"/>
@@ -8244,7 +8030,7 @@
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1">
       <c r="A46" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="111" t="s">
         <v>23</v>
@@ -8263,9 +8049,7 @@
       <c r="N46" s="111"/>
       <c r="O46" s="111"/>
       <c r="P46" s="112"/>
-      <c r="Q46" s="114" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q46" s="114"/>
       <c r="R46" s="115"/>
       <c r="S46" s="115"/>
       <c r="T46" s="115"/>
@@ -8297,9 +8081,7 @@
       <c r="O47" s="123"/>
       <c r="P47" s="123"/>
       <c r="Q47" s="20"/>
-      <c r="R47" s="119" t="s">
-        <v>88</v>
-      </c>
+      <c r="R47" s="119"/>
       <c r="S47" s="119"/>
       <c r="T47" s="119"/>
       <c r="U47" s="119"/>
@@ -8320,9 +8102,7 @@
       <c r="E48" s="124"/>
       <c r="F48" s="124"/>
       <c r="G48" s="125"/>
-      <c r="H48" s="127" t="s">
-        <v>89</v>
-      </c>
+      <c r="H48" s="127"/>
       <c r="I48" s="124"/>
       <c r="J48" s="124"/>
       <c r="K48" s="124"/>
@@ -8536,7 +8316,7 @@
     </row>
     <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="B55" s="122" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C55" s="122"/>
       <c r="D55" s="122"/>
@@ -8934,8 +8714,8 @@
   </sheetPr>
   <dimension ref="A1:AQ236"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A32" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:R20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -8973,7 +8753,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="6" customHeight="1">
       <c r="G1" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="136"/>
       <c r="I1" s="136"/>
@@ -9154,7 +8934,7 @@
     </row>
     <row r="9" spans="1:30" ht="14.25" customHeight="1">
       <c r="G9" s="138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
@@ -9187,7 +8967,7 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="141" t="s">
         <v>0</v>
@@ -9245,9 +9025,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="153"/>
       <c r="T12" s="154"/>
-      <c r="U12" s="155" t="s">
-        <v>99</v>
-      </c>
+      <c r="U12" s="155"/>
       <c r="V12" s="155"/>
       <c r="W12" s="155"/>
       <c r="X12" s="150"/>
@@ -9255,7 +9033,7 @@
       <c r="Z12" s="151"/>
       <c r="AA12" s="152"/>
       <c r="AB12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
@@ -9279,7 +9057,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S13" s="157"/>
       <c r="T13" s="157"/>
@@ -9291,7 +9069,7 @@
       <c r="Z13" s="157"/>
       <c r="AA13" s="158"/>
       <c r="AD13" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1" thickBot="1">
@@ -9305,7 +9083,7 @@
       <c r="F14" s="159"/>
       <c r="G14" s="159"/>
       <c r="H14" s="140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="140"/>
       <c r="J14" s="140"/>
@@ -9331,7 +9109,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="10"/>
       <c r="AD14" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="18" customHeight="1" thickBot="1">
@@ -9357,7 +9135,7 @@
       <c r="P15" s="161"/>
       <c r="Q15" s="161"/>
       <c r="R15" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="139"/>
       <c r="T15" s="139"/>
@@ -9371,7 +9149,7 @@
       <c r="Z15" s="161"/>
       <c r="AA15" s="162"/>
       <c r="AD15" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1" thickBot="1">
@@ -9382,7 +9160,7 @@
       <c r="C16" s="139"/>
       <c r="D16" s="14"/>
       <c r="E16" s="140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -9407,7 +9185,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
       <c r="AD16" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="8.25" customHeight="1">
@@ -9439,7 +9217,7 @@
       <c r="Z17" s="163"/>
       <c r="AA17" s="164"/>
       <c r="AD17" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="18" customHeight="1">
@@ -9473,13 +9251,13 @@
       </c>
       <c r="W18" s="172"/>
       <c r="X18" s="177" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
       <c r="AA18" s="177"/>
       <c r="AD18" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
@@ -9528,14 +9306,12 @@
       <c r="Z19" s="177"/>
       <c r="AA19" s="177"/>
       <c r="AD19" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="45" customHeight="1">
       <c r="A20" s="88"/>
-      <c r="B20" s="108" t="s">
-        <v>59</v>
-      </c>
+      <c r="B20" s="108"/>
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109"/>
@@ -9549,35 +9325,23 @@
       <c r="M20" s="109"/>
       <c r="N20" s="110"/>
       <c r="O20" s="37"/>
-      <c r="P20" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P20" s="102"/>
       <c r="Q20" s="103"/>
       <c r="R20" s="104"/>
-      <c r="S20" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S20" s="102"/>
       <c r="T20" s="103"/>
       <c r="U20" s="104"/>
-      <c r="V20" s="181">
-        <f>8+4</f>
-        <v>12</v>
-      </c>
+      <c r="V20" s="181"/>
       <c r="W20" s="182"/>
       <c r="X20" s="38"/>
-      <c r="Y20" s="178">
-        <f>533+520+305+233+252+487+350+280+263+469+254+315</f>
-        <v>4261</v>
-      </c>
+      <c r="Y20" s="178"/>
       <c r="Z20" s="179"/>
       <c r="AA20" s="180"/>
       <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:43" ht="42.75" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="108" t="s">
-        <v>59</v>
-      </c>
+      <c r="B21" s="108"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
       <c r="E21" s="109"/>
@@ -9591,34 +9355,23 @@
       <c r="M21" s="109"/>
       <c r="N21" s="110"/>
       <c r="O21" s="33"/>
-      <c r="P21" s="102" t="s">
-        <v>84</v>
-      </c>
+      <c r="P21" s="102"/>
       <c r="Q21" s="103"/>
       <c r="R21" s="104"/>
-      <c r="S21" s="102" t="s">
-        <v>96</v>
-      </c>
+      <c r="S21" s="102"/>
       <c r="T21" s="103"/>
       <c r="U21" s="104"/>
-      <c r="V21" s="168">
-        <v>4</v>
-      </c>
+      <c r="V21" s="168"/>
       <c r="W21" s="169"/>
       <c r="X21" s="36"/>
-      <c r="Y21" s="165">
-        <f>535+590+600+540</f>
-        <v>2265</v>
-      </c>
+      <c r="Y21" s="165"/>
       <c r="Z21" s="166"/>
       <c r="AA21" s="167"/>
       <c r="AD21" s="29"/>
     </row>
     <row r="22" spans="1:43" ht="28.5" customHeight="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="108" t="s">
-        <v>97</v>
-      </c>
+      <c r="B22" s="108"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
       <c r="E22" s="109"/>
@@ -9632,77 +9385,53 @@
       <c r="M22" s="109"/>
       <c r="N22" s="110"/>
       <c r="O22" s="35"/>
-      <c r="P22" s="102">
-        <v>1</v>
-      </c>
+      <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
       <c r="R22" s="104"/>
-      <c r="S22" s="102" t="s">
-        <v>95</v>
-      </c>
+      <c r="S22" s="102"/>
       <c r="T22" s="103"/>
       <c r="U22" s="104"/>
-      <c r="V22" s="168">
-        <f>332+190</f>
-        <v>522</v>
-      </c>
+      <c r="V22" s="168"/>
       <c r="W22" s="169"/>
       <c r="X22" s="36"/>
-      <c r="Y22" s="165">
-        <f>138+223</f>
-        <v>361</v>
-      </c>
+      <c r="Y22" s="165"/>
       <c r="Z22" s="166"/>
       <c r="AA22" s="167"/>
       <c r="AD22" s="29"/>
     </row>
     <row r="23" spans="1:43" ht="28.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="192" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
       <c r="O23" s="35"/>
-      <c r="P23" s="135">
-        <v>1</v>
-      </c>
+      <c r="P23" s="135"/>
       <c r="Q23" s="135"/>
       <c r="R23" s="135"/>
-      <c r="S23" s="190" t="s">
-        <v>95</v>
-      </c>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="191">
-        <f>70+35</f>
-        <v>105</v>
-      </c>
-      <c r="W23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="189"/>
       <c r="X23" s="36"/>
-      <c r="Y23" s="183">
-        <f>106+72</f>
-        <v>178</v>
-      </c>
+      <c r="Y23" s="183"/>
       <c r="Z23" s="183"/>
       <c r="AA23" s="183"/>
       <c r="AD23" s="29"/>
     </row>
     <row r="24" spans="1:43" ht="28.5" customHeight="1">
       <c r="A24" s="88"/>
-      <c r="B24" s="108" t="s">
-        <v>78</v>
-      </c>
+      <c r="B24" s="108"/>
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
@@ -9716,34 +9445,23 @@
       <c r="M24" s="109"/>
       <c r="N24" s="110"/>
       <c r="O24" s="35"/>
-      <c r="P24" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P24" s="102"/>
       <c r="Q24" s="103"/>
       <c r="R24" s="104"/>
-      <c r="S24" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S24" s="102"/>
       <c r="T24" s="103"/>
       <c r="U24" s="104"/>
-      <c r="V24" s="184">
-        <v>7</v>
-      </c>
+      <c r="V24" s="184"/>
       <c r="W24" s="184"/>
       <c r="X24" s="34"/>
-      <c r="Y24" s="184">
-        <f>360+433+306+345+441+305+355</f>
-        <v>2545</v>
-      </c>
+      <c r="Y24" s="184"/>
       <c r="Z24" s="184"/>
       <c r="AA24" s="184"/>
       <c r="AD24" s="29"/>
     </row>
     <row r="25" spans="1:43" ht="18.75" customHeight="1">
       <c r="A25" s="88"/>
-      <c r="B25" s="108" t="s">
-        <v>75</v>
-      </c>
+      <c r="B25" s="108"/>
       <c r="C25" s="109"/>
       <c r="D25" s="109"/>
       <c r="E25" s="109"/>
@@ -9757,35 +9475,23 @@
       <c r="M25" s="109"/>
       <c r="N25" s="110"/>
       <c r="O25" s="33"/>
-      <c r="P25" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P25" s="102"/>
       <c r="Q25" s="103"/>
       <c r="R25" s="104"/>
-      <c r="S25" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S25" s="102"/>
       <c r="T25" s="103"/>
       <c r="U25" s="104"/>
-      <c r="V25" s="168">
-        <f>5+2</f>
-        <v>7</v>
-      </c>
+      <c r="V25" s="168"/>
       <c r="W25" s="169"/>
       <c r="X25" s="36"/>
-      <c r="Y25" s="165">
-        <f>663+621+620+689+769+580+639</f>
-        <v>4581</v>
-      </c>
+      <c r="Y25" s="165"/>
       <c r="Z25" s="166"/>
       <c r="AA25" s="167"/>
       <c r="AD25" s="28"/>
     </row>
     <row r="26" spans="1:43" ht="30.75" customHeight="1">
       <c r="A26" s="88"/>
-      <c r="B26" s="108" t="s">
-        <v>68</v>
-      </c>
+      <c r="B26" s="108"/>
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
       <c r="E26" s="109"/>
@@ -9799,35 +9505,23 @@
       <c r="M26" s="109"/>
       <c r="N26" s="110"/>
       <c r="O26" s="33"/>
-      <c r="P26" s="102" t="s">
-        <v>83</v>
-      </c>
+      <c r="P26" s="102"/>
       <c r="Q26" s="103"/>
       <c r="R26" s="104"/>
-      <c r="S26" s="102" t="s">
-        <v>82</v>
-      </c>
+      <c r="S26" s="102"/>
       <c r="T26" s="103"/>
       <c r="U26" s="104"/>
-      <c r="V26" s="168">
-        <f>4+4+4+3</f>
-        <v>15</v>
-      </c>
+      <c r="V26" s="168"/>
       <c r="W26" s="169"/>
       <c r="X26" s="36"/>
-      <c r="Y26" s="165">
-        <f>670+567+480+244</f>
-        <v>1961</v>
-      </c>
+      <c r="Y26" s="165"/>
       <c r="Z26" s="166"/>
       <c r="AA26" s="167"/>
       <c r="AD26" s="28"/>
     </row>
     <row r="27" spans="1:43" ht="28.5" customHeight="1">
       <c r="A27" s="88"/>
-      <c r="B27" s="108" t="s">
-        <v>68</v>
-      </c>
+      <c r="B27" s="108"/>
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
       <c r="E27" s="109"/>
@@ -9841,36 +9535,25 @@
       <c r="M27" s="109"/>
       <c r="N27" s="110"/>
       <c r="O27" s="33"/>
-      <c r="P27" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P27" s="102"/>
       <c r="Q27" s="103"/>
       <c r="R27" s="104"/>
-      <c r="S27" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S27" s="102"/>
       <c r="T27" s="103"/>
       <c r="U27" s="104"/>
-      <c r="V27" s="168">
-        <v>5</v>
-      </c>
+      <c r="V27" s="168"/>
       <c r="W27" s="169"/>
       <c r="X27" s="36"/>
-      <c r="Y27" s="165">
-        <f>1000+1063+1045+1045+1038</f>
-        <v>5191</v>
-      </c>
+      <c r="Y27" s="165"/>
       <c r="Z27" s="166"/>
       <c r="AA27" s="167"/>
       <c r="AD27" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="29.25" customHeight="1">
       <c r="A28" s="89"/>
-      <c r="B28" s="108" t="s">
-        <v>70</v>
-      </c>
+      <c r="B28" s="108"/>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
@@ -9884,35 +9567,23 @@
       <c r="M28" s="109"/>
       <c r="N28" s="110"/>
       <c r="O28" s="33"/>
-      <c r="P28" s="102" t="s">
-        <v>50</v>
-      </c>
+      <c r="P28" s="102"/>
       <c r="Q28" s="103"/>
       <c r="R28" s="104"/>
-      <c r="S28" s="102" t="s">
-        <v>57</v>
-      </c>
+      <c r="S28" s="102"/>
       <c r="T28" s="103"/>
       <c r="U28" s="104"/>
-      <c r="V28" s="184">
-        <f>2+1</f>
-        <v>3</v>
-      </c>
+      <c r="V28" s="184"/>
       <c r="W28" s="184"/>
       <c r="X28" s="39"/>
-      <c r="Y28" s="184">
-        <f>1012+1320+1330</f>
-        <v>3662</v>
-      </c>
+      <c r="Y28" s="184"/>
       <c r="Z28" s="184"/>
       <c r="AA28" s="184"/>
       <c r="AD28" s="29"/>
     </row>
     <row r="29" spans="1:43" ht="29.25" customHeight="1">
       <c r="A29" s="89"/>
-      <c r="B29" s="108" t="s">
-        <v>70</v>
-      </c>
+      <c r="B29" s="108"/>
       <c r="C29" s="109"/>
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
@@ -9926,35 +9597,23 @@
       <c r="M29" s="109"/>
       <c r="N29" s="110"/>
       <c r="O29" s="33"/>
-      <c r="P29" s="102" t="s">
-        <v>83</v>
-      </c>
+      <c r="P29" s="102"/>
       <c r="Q29" s="103"/>
       <c r="R29" s="104"/>
-      <c r="S29" s="74" t="s">
-        <v>82</v>
-      </c>
+      <c r="S29" s="74"/>
       <c r="T29" s="43"/>
       <c r="U29" s="75"/>
-      <c r="V29" s="184">
-        <f>4+4+3+4+4+4+4+4</f>
-        <v>31</v>
-      </c>
+      <c r="V29" s="184"/>
       <c r="W29" s="184"/>
       <c r="X29" s="39"/>
-      <c r="Y29" s="184">
-        <f>560+177+91+411+525+298+272+139</f>
-        <v>2473</v>
-      </c>
+      <c r="Y29" s="184"/>
       <c r="Z29" s="184"/>
       <c r="AA29" s="184"/>
       <c r="AD29" s="29"/>
     </row>
     <row r="30" spans="1:43" ht="24.75" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="185" t="s">
-        <v>63</v>
-      </c>
+      <c r="B30" s="185"/>
       <c r="C30" s="185"/>
       <c r="D30" s="185"/>
       <c r="E30" s="185"/>
@@ -9968,33 +9627,26 @@
       <c r="M30" s="185"/>
       <c r="N30" s="185"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="135" t="s">
-        <v>83</v>
-      </c>
+      <c r="P30" s="135"/>
       <c r="Q30" s="135"/>
       <c r="R30" s="135"/>
-      <c r="S30" s="135" t="s">
-        <v>82</v>
-      </c>
+      <c r="S30" s="135"/>
       <c r="T30" s="135"/>
       <c r="U30" s="135"/>
-      <c r="V30" s="183">
-        <f>3+3</f>
-        <v>6</v>
-      </c>
+      <c r="V30" s="183"/>
       <c r="W30" s="183"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="183"/>
       <c r="Z30" s="183"/>
       <c r="AA30" s="183"/>
       <c r="AD30" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="18.75" customHeight="1">
       <c r="A31" s="88"/>
       <c r="B31" s="41" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C31" s="187"/>
       <c r="D31" s="187"/>
@@ -10017,13 +9669,13 @@
       <c r="U31" s="187"/>
       <c r="V31" s="44">
         <f>SUM(V20:W30)</f>
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="W31" s="44"/>
       <c r="X31" s="32"/>
       <c r="Y31" s="45">
         <f>SUM(Y20:AA30)</f>
-        <v>27478</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
@@ -10060,7 +9712,7 @@
       <c r="Z32" s="119"/>
       <c r="AA32" s="120"/>
       <c r="AD32" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1">
@@ -10092,7 +9744,7 @@
       <c r="Z33" s="93"/>
       <c r="AA33" s="94"/>
       <c r="AD33" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="21" customHeight="1" thickTop="1">
@@ -10126,13 +9778,13 @@
       <c r="Z34" s="98"/>
       <c r="AA34" s="99"/>
       <c r="AD34" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42" customHeight="1">
       <c r="A35" s="88"/>
       <c r="B35" s="100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="100"/>
       <c r="D35" s="100"/>
@@ -10160,7 +9812,7 @@
       <c r="Z35" s="100"/>
       <c r="AA35" s="101"/>
       <c r="AD35" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="21" customHeight="1" thickBot="1">
@@ -10181,9 +9833,7 @@
       <c r="M36" s="85"/>
       <c r="N36" s="85"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="61" t="s">
-        <v>94</v>
-      </c>
+      <c r="P36" s="61"/>
       <c r="Q36" s="61"/>
       <c r="R36" s="61"/>
       <c r="S36" s="61"/>
@@ -10196,12 +9846,12 @@
       <c r="Z36" s="61"/>
       <c r="AA36" s="62"/>
       <c r="AD36" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="18.75" customHeight="1">
       <c r="A37" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>13</v>
@@ -10219,9 +9869,7 @@
       <c r="M37" s="64"/>
       <c r="N37" s="65"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="95" t="s">
-        <v>55</v>
-      </c>
+      <c r="P37" s="95"/>
       <c r="Q37" s="96"/>
       <c r="R37" s="96"/>
       <c r="S37" s="96"/>
@@ -10234,7 +9882,7 @@
       <c r="Z37" s="96"/>
       <c r="AA37" s="97"/>
       <c r="AD37" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" customHeight="1">
@@ -10245,9 +9893,7 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="66" t="s">
-        <v>89</v>
-      </c>
+      <c r="F38" s="66"/>
       <c r="G38" s="67"/>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
@@ -10265,22 +9911,20 @@
         <v>6</v>
       </c>
       <c r="U38" s="78"/>
-      <c r="V38" s="66" t="s">
-        <v>39</v>
-      </c>
+      <c r="V38" s="66"/>
       <c r="W38" s="67"/>
       <c r="X38" s="67"/>
       <c r="Y38" s="67"/>
       <c r="Z38" s="67"/>
       <c r="AA38" s="68"/>
       <c r="AD38" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="A39" s="86"/>
       <c r="B39" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
@@ -10289,9 +9933,7 @@
       <c r="G39" s="76"/>
       <c r="H39" s="76"/>
       <c r="I39" s="77"/>
-      <c r="J39" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="J39" s="74"/>
       <c r="K39" s="43"/>
       <c r="L39" s="43"/>
       <c r="M39" s="43"/>
@@ -10308,13 +9950,11 @@
       <c r="V39" s="63"/>
       <c r="W39" s="63"/>
       <c r="X39" s="63"/>
-      <c r="Y39" s="79" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y39" s="79"/>
       <c r="Z39" s="80"/>
       <c r="AA39" s="81"/>
       <c r="AD39" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="14.25" customHeight="1">
@@ -10348,7 +9988,7 @@
       <c r="Z40" s="57"/>
       <c r="AA40" s="82"/>
       <c r="AD40" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="14.25" customHeight="1">
@@ -10358,9 +9998,7 @@
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
-      <c r="E41" s="53" t="s">
-        <v>102</v>
-      </c>
+      <c r="E41" s="53"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
@@ -10394,7 +10032,7 @@
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
       <c r="E42" s="83" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -10415,9 +10053,7 @@
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
       <c r="V42" s="58"/>
-      <c r="W42" s="132">
-        <v>45791</v>
-      </c>
+      <c r="W42" s="132"/>
       <c r="X42" s="133"/>
       <c r="Y42" s="133"/>
       <c r="Z42" s="133"/>
@@ -10456,9 +10092,7 @@
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1">
       <c r="A44" s="86"/>
-      <c r="B44" s="72" t="s">
-        <v>85</v>
-      </c>
+      <c r="B44" s="72"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
@@ -10497,9 +10131,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="48" t="s">
-        <v>87</v>
-      </c>
+      <c r="J45" s="48"/>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
@@ -10513,9 +10145,7 @@
       <c r="S45" s="91"/>
       <c r="T45" s="91"/>
       <c r="U45" s="91"/>
-      <c r="V45" s="69" t="s">
-        <v>100</v>
-      </c>
+      <c r="V45" s="69"/>
       <c r="W45" s="70"/>
       <c r="X45" s="70"/>
       <c r="Y45" s="70"/>
@@ -10524,7 +10154,7 @@
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1">
       <c r="A46" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="111" t="s">
         <v>23</v>
@@ -10543,9 +10173,7 @@
       <c r="N46" s="111"/>
       <c r="O46" s="111"/>
       <c r="P46" s="112"/>
-      <c r="Q46" s="114" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q46" s="114"/>
       <c r="R46" s="115"/>
       <c r="S46" s="115"/>
       <c r="T46" s="115"/>
@@ -10577,9 +10205,7 @@
       <c r="O47" s="123"/>
       <c r="P47" s="123"/>
       <c r="Q47" s="20"/>
-      <c r="R47" s="119" t="s">
-        <v>88</v>
-      </c>
+      <c r="R47" s="119"/>
       <c r="S47" s="119"/>
       <c r="T47" s="119"/>
       <c r="U47" s="119"/>
@@ -10600,9 +10226,7 @@
       <c r="E48" s="124"/>
       <c r="F48" s="124"/>
       <c r="G48" s="125"/>
-      <c r="H48" s="127" t="s">
-        <v>89</v>
-      </c>
+      <c r="H48" s="127"/>
       <c r="I48" s="124"/>
       <c r="J48" s="124"/>
       <c r="K48" s="124"/>
@@ -10816,7 +10440,7 @@
     </row>
     <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="B55" s="122" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C55" s="122"/>
       <c r="D55" s="122"/>
@@ -11229,8 +10853,8 @@
   </sheetPr>
   <dimension ref="B2:B26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:AA45"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20"/>
@@ -11243,127 +10867,127 @@
   <sheetData>
     <row r="2" spans="2:2" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="B2" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="20.25" customHeight="1">
       <c r="B3" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="20.25" customHeight="1">
       <c r="B4" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="20.25" customHeight="1">
       <c r="B5" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="20.25" customHeight="1">
       <c r="B6" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="20.25" customHeight="1">
       <c r="B7" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="35.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="20.25" customHeight="1">
       <c r="B9" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="20.25" customHeight="1">
       <c r="B10" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="20.25" customHeight="1">
       <c r="B11" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="20.25" customHeight="1">
       <c r="B12" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="20.25" customHeight="1">
       <c r="B13" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="20.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="20.25" customHeight="1">
       <c r="B15" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="20.25" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.25" customHeight="1">
       <c r="B17" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="20.25" customHeight="1">
       <c r="B18" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="20.25" customHeight="1">
       <c r="B19" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="20.25" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25" customHeight="1">
       <c r="B21" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="20.25" customHeight="1">
       <c r="B22" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="26" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="26" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:2" s="26" customFormat="1">
       <c r="B25" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="26" customFormat="1">
       <c r="B26" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
